--- a/medicine/Psychotrope/Étiquette_de_bière/Étiquette_de_bière.xlsx
+++ b/medicine/Psychotrope/Étiquette_de_bière/Étiquette_de_bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tiquette_de_bi%C3%A8re</t>
+          <t>Étiquette_de_bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étiquette de bière est un morceau de papier ou de plastique collé sur une bouteille de bière et sur laquelle sont imprimées des informations légales et publicitaires permettant au consommateur d'être averti de certains risques et d'effectuer son choix. L'étiquette peut être illustrée de dessins, de photos, de reproductions d'œuvres d'art mais aussi jouer sur la typographie des différentes mentions. 
 On reconnaît en premier lieu l'étiquette principale, positionnée sur le devant de la bouteille, puis la contre-étiquette située derrière et la collerette située sur le devant en haut près du goulot. 
